--- a/src/test/testdata/Request.xlsx
+++ b/src/test/testdata/Request.xlsx
@@ -32,10 +32,10 @@
     <t>1021132355</t>
   </si>
   <si>
-    <t>72511</t>
+    <t>72512</t>
   </si>
   <si>
-    <t>355641</t>
+    <t>355642</t>
   </si>
 </sst>
 </file>

--- a/src/test/testdata/Request.xlsx
+++ b/src/test/testdata/Request.xlsx
@@ -32,10 +32,10 @@
     <t>1021132355</t>
   </si>
   <si>
-    <t>72512</t>
+    <t>72522</t>
   </si>
   <si>
-    <t>355642</t>
+    <t>355647</t>
   </si>
 </sst>
 </file>

--- a/src/test/testdata/Request.xlsx
+++ b/src/test/testdata/Request.xlsx
@@ -29,13 +29,13 @@
     <t>Amira</t>
   </si>
   <si>
-    <t>1021132355</t>
+    <t>1117777778</t>
   </si>
   <si>
-    <t>72522</t>
+    <t>92279</t>
   </si>
   <si>
-    <t>355647</t>
+    <t>518420</t>
   </si>
 </sst>
 </file>

--- a/src/test/testdata/Request.xlsx
+++ b/src/test/testdata/Request.xlsx
@@ -29,13 +29,13 @@
     <t>Amira</t>
   </si>
   <si>
-    <t>1117777778</t>
+    <t>1021132355</t>
   </si>
   <si>
-    <t>92279</t>
+    <t>73492</t>
   </si>
   <si>
-    <t>518420</t>
+    <t>356357</t>
   </si>
 </sst>
 </file>
